--- a/Files/simple.xlsx
+++ b/Files/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-appium\simple-demo\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0323B-A0F9-4F6C-99F8-1C93E37DE402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF494C-5C19-48CE-84CC-6C49E01B9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Upon launching the app the user should be redirected to Simple Opening Page</t>
-  </si>
-  <si>
-    <t>Click Next Button</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TC1</t>
   </si>
   <si>
     <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>1. Upon launching the app the user should be redirected to Simple Opening Page</t>
+  </si>
+  <si>
+    <t>2. Click Next Button</t>
+  </si>
+  <si>
+    <t>1. Validate the select country page</t>
+  </si>
+  <si>
+    <t>2. Select a country</t>
+  </si>
+  <si>
+    <t>3. Select a region</t>
+  </si>
+  <si>
+    <t>4. Enter number</t>
+  </si>
+  <si>
+    <t>5. Click Next Button</t>
+  </si>
+  <si>
+    <t>6. Enter name</t>
+  </si>
+  <si>
+    <t>7. Enter PIN one</t>
+  </si>
+  <si>
+    <t>8. Enter PIN two</t>
+  </si>
+  <si>
+    <t>9. Click Allow</t>
+  </si>
+  <si>
+    <t>10. Click allow prompt</t>
+  </si>
+  <si>
+    <t>11. Search facility</t>
+  </si>
+  <si>
+    <t>12. Click YES</t>
+  </si>
+  <si>
+    <t>13. Click Skip</t>
   </si>
 </sst>
 </file>
@@ -52,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,32 +403,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Files/simple.xlsx
+++ b/Files/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-appium\simple-demo\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF494C-5C19-48CE-84CC-6C49E01B9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC3E69-F574-4ABE-B219-3AF0DE1F4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TC1</t>
   </si>
@@ -79,6 +79,51 @@
   </si>
   <si>
     <t>13. Click Skip</t>
+  </si>
+  <si>
+    <t>1. Click the patient search box (Enter name, phone or ID)</t>
+  </si>
+  <si>
+    <t>2. Click REGISTER AS A NEW PATIENT button</t>
+  </si>
+  <si>
+    <t>3. Fillout all the fields</t>
+  </si>
+  <si>
+    <t>4. Click Next button</t>
+  </si>
+  <si>
+    <t>5. Select NO for all disease</t>
+  </si>
+  <si>
+    <t>6. Select YES for all disease</t>
+  </si>
+  <si>
+    <t>7. Click save</t>
+  </si>
+  <si>
+    <t>8. Click Not Now</t>
+  </si>
+  <si>
+    <t>9. Validate patient if exist via search</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>1. Click Medicine (+) button</t>
+  </si>
+  <si>
+    <t>2. Select multiple kinds of existing medicines and their dosage</t>
+  </si>
+  <si>
+    <t>3. Click Save</t>
+  </si>
+  <si>
+    <t>4. Validate if the selected medicines reflected in the medicine section</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
 </sst>
 </file>
@@ -403,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +546,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/simple.xlsx
+++ b/Files/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-appium\simple-demo\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC3E69-F574-4ABE-B219-3AF0DE1F4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84191C0-5A5B-4FC7-918D-F2ED16006A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,13 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
